--- a/notes-on-slide-changes.xlsx
+++ b/notes-on-slide-changes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weath/Documents/305-W22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D9985FC-B601-D94C-B31A-C7CE14A40362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA64F05-DA87-1546-A912-E743221201D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="10960" xr2:uid="{F89B27A4-A3A2-3C43-BD0E-4D1F0EB7BBBC}"/>
   </bookViews>
@@ -106,9 +106,6 @@
     <t>6.4</t>
   </si>
   <si>
-    <t>6.5</t>
-  </si>
-  <si>
     <t>Class three</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
     <t>7.1-2</t>
   </si>
   <si>
-    <t>7.3-5</t>
-  </si>
-  <si>
     <t>8.1-2</t>
   </si>
   <si>
@@ -134,6 +128,12 @@
   </si>
   <si>
     <t>6.1 - Just change header</t>
+  </si>
+  <si>
+    <t>7.3-6</t>
+  </si>
+  <si>
+    <t>7.6</t>
   </si>
 </sst>
 </file>
@@ -493,7 +493,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -566,10 +566,10 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -584,13 +584,13 @@
         <v>3.8379629629629625E-2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -605,13 +605,13 @@
         <v>4.6967592592592589E-2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -626,13 +626,13 @@
         <v>5.7974537037037033E-2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -647,7 +647,7 @@
         <v>6.3090277777777773E-2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -662,7 +662,7 @@
         <v>6.6817129629629629E-2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -677,7 +677,7 @@
         <v>7.0289351851851853E-2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -748,7 +748,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="1"/>
     </row>
